--- a/WebURLsForRFE-BCS.xlsx
+++ b/WebURLsForRFE-BCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandhoni/Documents/BCS-RFE-Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A267B6-B31F-7746-9C22-353428A1960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E58CC-2C0B-9C44-8743-CFB5CC16C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspiring others" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Table 1</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>https://www.udemy.com/course/unlocking-big-data-an-introduction-to-spark-basics/?utm_campaign=email&amp;utm_medium=email&amp;utm_source=sendgrid.com</t>
+  </si>
+  <si>
+    <t>Othe Links</t>
+  </si>
+  <si>
+    <t>https://analyticsindiamag.com/data-engineering-awards-2024-meet-the-winners/</t>
+  </si>
+  <si>
+    <t>AIM Magzine</t>
+  </si>
+  <si>
+    <t>Awarded and got coverage on Media, got LinkedIn invittaions from folks who want to connect and leran more about data Engineering. This is inspiring through past work.</t>
+  </si>
+  <si>
+    <t>Will help Data Engineering and AI community</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Testimonial-LetterFrom-MaklanDigital</t>
+  </si>
+  <si>
+    <t>MaklanDIGITAL</t>
   </si>
 </sst>
 </file>
@@ -371,7 +395,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -405,9 +429,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -424,6 +445,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1586,11 +1613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1604,15 +1631,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1639,7 +1666,7 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4"/>
@@ -1654,7 +1681,7 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="6"/>
@@ -1671,7 +1698,7 @@
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="6"/>
@@ -1684,7 +1711,7 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="6"/>
@@ -1833,7 +1860,9 @@
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1890,11 +1919,19 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
+    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1936,6 +1973,7 @@
     <hyperlink ref="C18" r:id="rId21" xr:uid="{6BA5393C-45F9-8547-A366-F5E369738740}"/>
     <hyperlink ref="C19" r:id="rId22" xr:uid="{9CDBE3A2-9C5E-3A41-8ABA-F6A71EC32DBC}"/>
     <hyperlink ref="C20" r:id="rId23" xr:uid="{264A7040-F9E3-4E42-9379-027E48109D55}"/>
+    <hyperlink ref="C22" r:id="rId24" xr:uid="{6F96D224-1602-9247-AD7C-475247170326}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
@@ -1947,46 +1985,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE92B36-3868-9749-B5F7-9E2D7D89765C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="147.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/WebURLsForRFE-BCS.xlsx
+++ b/WebURLsForRFE-BCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandhoni/Documents/BCS-RFE-Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E58CC-2C0B-9C44-8743-CFB5CC16C9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D0BE4-9BBA-7342-8559-AD65A996BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspiring others" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Table 1</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>MaklanDIGITAL</t>
+  </si>
+  <si>
+    <t>https://www.blogger.com/blog/posts/5423268485292591890</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Other Media Links</t>
+  </si>
+  <si>
+    <t>SS Software Solutions, LLC</t>
+  </si>
+  <si>
+    <t>Testimonial-Letter</t>
   </si>
 </sst>
 </file>
@@ -273,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -386,6 +401,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -395,7 +501,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -445,12 +551,48 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,10 +1756,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1625,21 +1767,21 @@
     <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72" style="1" customWidth="1"/>
     <col min="5" max="8" width="16.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1842,9 +1984,15 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1910,37 +2058,41 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
+    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="A22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1973,10 +2125,12 @@
     <hyperlink ref="C18" r:id="rId21" xr:uid="{6BA5393C-45F9-8547-A366-F5E369738740}"/>
     <hyperlink ref="C19" r:id="rId22" xr:uid="{9CDBE3A2-9C5E-3A41-8ABA-F6A71EC32DBC}"/>
     <hyperlink ref="C20" r:id="rId23" xr:uid="{264A7040-F9E3-4E42-9379-027E48109D55}"/>
-    <hyperlink ref="C22" r:id="rId24" xr:uid="{6F96D224-1602-9247-AD7C-475247170326}"/>
+    <hyperlink ref="C21" r:id="rId24" xr:uid="{6F96D224-1602-9247-AD7C-475247170326}"/>
+    <hyperlink ref="C16" r:id="rId25" xr:uid="{774A7F03-A0E1-2449-87C0-4E038407327B}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{59C0E1FB-7127-074D-9E44-33D8260B36AF}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1985,16 +2139,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE92B36-3868-9749-B5F7-9E2D7D89765C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="147.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="127.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2029,15 +2181,31 @@
         <v>47</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
     <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2046,5 +2214,6 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A8B13668-FD5D-A54F-9AEC-2451AB061FF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/WebURLsForRFE-BCS.xlsx
+++ b/WebURLsForRFE-BCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandhoni/Documents/BCS-RFE-Response/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhonip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D0BE4-9BBA-7342-8559-AD65A996BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9C595-D00C-41E9-BDB0-7B84CECE238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inspiring others" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Table 1</t>
   </si>
@@ -137,21 +137,12 @@
     <t>Speaking</t>
   </si>
   <si>
-    <t>My Video Starts @ 1:52 (After one hour 52 minutes)</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t>Private mode (in case require, we can provide permission)</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -210,13 +201,80 @@
   </si>
   <si>
     <t>Testimonial-Letter</t>
+  </si>
+  <si>
+    <t>https://www.opastpublishers.com/journal/journal-of-mathematical-techniques-and-computational-mathematics/editorial-board</t>
+  </si>
+  <si>
+    <t>JMTC Editorial Board</t>
+  </si>
+  <si>
+    <t>https://static1.squarespace.com/static/65a94a4bbfa95b05b395e6d9/t/6670f498bc5acf68bebd5ca0/1718678684737/A+Deep+Dive+into+Spark+Internals+and+Databricks+Mastery.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dhonipan.com/blog</t>
+  </si>
+  <si>
+    <t>A Deep Dive into Spark Internals and Databricks Mastery</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/stats</t>
+  </si>
+  <si>
+    <t>All Links</t>
+  </si>
+  <si>
+    <t>Thanks Creation9</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Article: Medium</t>
+  </si>
+  <si>
+    <t>Article: Dzone</t>
+  </si>
+  <si>
+    <t>Article: IHRIM</t>
+  </si>
+  <si>
+    <t>Article: LinkedIn</t>
+  </si>
+  <si>
+    <t>Article: Quora</t>
+  </si>
+  <si>
+    <t>Article: Blogger</t>
+  </si>
+  <si>
+    <t>ACKIM Technical committee Member</t>
+  </si>
+  <si>
+    <t>https://ackim.org/committee.html</t>
+  </si>
+  <si>
+    <t>My Video Starts @ 1:52 (After one hour 52 minutes) or
+https://www.youtube.com/watch?v=r-H4_pTp4Gg</t>
+  </si>
+  <si>
+    <t>From Genpact, USA Employee</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Upcoming, email at GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -261,6 +319,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -288,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -313,10 +378,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -328,43 +393,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -416,19 +451,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -458,7 +480,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -468,27 +490,97 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,7 +593,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -511,88 +603,121 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1753,381 +1878,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72" style="1" customWidth="1"/>
-    <col min="5" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.33203125" style="1"/>
+    <col min="3" max="3" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" ht="25.5">
+      <c r="A3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="31.5">
+      <c r="A5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1">
+      <c r="A15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5">
+      <c r="A16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75">
+      <c r="A20" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="38.25">
+      <c r="A21" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5">
+      <c r="A22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5">
+      <c r="A24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="C25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B27" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{521C5165-FB2B-3148-9DC6-B48D7835BE58}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{14B3DCD0-912A-B248-8271-CB64CF61B465}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{7CDECEFD-D38C-C745-8D93-269A72D8FBA6}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{203F37F2-C380-4A44-BD92-535DAE176339}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{B4CCD4EB-B61B-2E4A-9EAD-0217580A702F}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{28CD6240-6D79-9244-9571-9E947B868B2B}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{9A95A1E0-6A00-BC41-A54E-93B37722EB12}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{FF175F55-6981-E344-9C26-F7ECCA249EAE}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{055B21DC-A297-7942-A908-FCD6AAD238FB}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{0D04BB02-66D9-C04F-B720-7D3AD162BAB5}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00E8A7E1-020A-1A43-9C80-6B7D3B145CFC}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{9238D3DB-C075-8040-B074-F80A4997D3DA}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{90C8185A-3A48-6245-A2C7-7F09AED082F1}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{1769A53E-781F-CF42-BC40-0AC3AA4E43E4}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{82CAE67C-299F-9641-A3A5-9F25B0430BDD}"/>
-    <hyperlink ref="B14" r:id="rId16" xr:uid="{A3DDA777-AED5-AC49-A910-EA125CE7A200}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{576BFCA3-3E76-CA46-8270-AD6345412842}"/>
-    <hyperlink ref="B15" r:id="rId18" xr:uid="{6686C3FF-0C41-7B47-9A79-03FC11B132A4}"/>
-    <hyperlink ref="B17" r:id="rId19" display="https://chatgpt.com/g/g-IqXfILSib-betterdatasmartai" xr:uid="{6DD56A0B-C893-934B-B205-86AF14163E94}"/>
-    <hyperlink ref="C17" r:id="rId20" xr:uid="{65ACA445-FA1E-DA4A-ACDC-5E9E5EB78032}"/>
-    <hyperlink ref="C18" r:id="rId21" xr:uid="{6BA5393C-45F9-8547-A366-F5E369738740}"/>
-    <hyperlink ref="C19" r:id="rId22" xr:uid="{9CDBE3A2-9C5E-3A41-8ABA-F6A71EC32DBC}"/>
-    <hyperlink ref="C20" r:id="rId23" xr:uid="{264A7040-F9E3-4E42-9379-027E48109D55}"/>
-    <hyperlink ref="C21" r:id="rId24" xr:uid="{6F96D224-1602-9247-AD7C-475247170326}"/>
-    <hyperlink ref="C16" r:id="rId25" xr:uid="{774A7F03-A0E1-2449-87C0-4E038407327B}"/>
-    <hyperlink ref="C22" r:id="rId26" xr:uid="{59C0E1FB-7127-074D-9E44-33D8260B36AF}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{7CDECEFD-D38C-C745-8D93-269A72D8FBA6}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{203F37F2-C380-4A44-BD92-535DAE176339}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B4CCD4EB-B61B-2E4A-9EAD-0217580A702F}"/>
+    <hyperlink ref="B18" r:id="rId6" xr:uid="{28CD6240-6D79-9244-9571-9E947B868B2B}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{9A95A1E0-6A00-BC41-A54E-93B37722EB12}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{FF175F55-6981-E344-9C26-F7ECCA249EAE}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{055B21DC-A297-7942-A908-FCD6AAD238FB}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{0D04BB02-66D9-C04F-B720-7D3AD162BAB5}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00E8A7E1-020A-1A43-9C80-6B7D3B145CFC}"/>
+    <hyperlink ref="B21" r:id="rId12" xr:uid="{9238D3DB-C075-8040-B074-F80A4997D3DA}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{90C8185A-3A48-6245-A2C7-7F09AED082F1}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{1769A53E-781F-CF42-BC40-0AC3AA4E43E4}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{82CAE67C-299F-9641-A3A5-9F25B0430BDD}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{A3DDA777-AED5-AC49-A910-EA125CE7A200}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{576BFCA3-3E76-CA46-8270-AD6345412842}"/>
+    <hyperlink ref="B10" r:id="rId18" display="https://chatgpt.com/g/g-IqXfILSib-betterdatasmartai" xr:uid="{6DD56A0B-C893-934B-B205-86AF14163E94}"/>
+    <hyperlink ref="C10" r:id="rId19" xr:uid="{65ACA445-FA1E-DA4A-ACDC-5E9E5EB78032}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{6BA5393C-45F9-8547-A366-F5E369738740}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{9CDBE3A2-9C5E-3A41-8ABA-F6A71EC32DBC}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{264A7040-F9E3-4E42-9379-027E48109D55}"/>
+    <hyperlink ref="C14" r:id="rId23" xr:uid="{6F96D224-1602-9247-AD7C-475247170326}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{774A7F03-A0E1-2449-87C0-4E038407327B}"/>
+    <hyperlink ref="C15" r:id="rId25" xr:uid="{59C0E1FB-7127-074D-9E44-33D8260B36AF}"/>
+    <hyperlink ref="C16" r:id="rId26" xr:uid="{2F0E79F9-2C3C-4A4C-9117-E5E1DF2A454D}"/>
+    <hyperlink ref="B25" r:id="rId27" display="https://www.quora.com/stats" xr:uid="{EDE638E7-BBB5-4B77-A1BD-93D008455265}"/>
+    <hyperlink ref="C25" r:id="rId28" xr:uid="{CE755726-A0CF-4CF0-8EB4-773359FE3763}"/>
+    <hyperlink ref="D15" r:id="rId29" xr:uid="{70F6EA4E-B763-4CFE-9048-C0CF1CF86734}"/>
+    <hyperlink ref="D5" r:id="rId30" xr:uid="{3486B030-5FA5-4D4F-9D69-E1B4815BB891}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{2E62A9B0-5BAA-4DF5-AA6A-B809EF0897BB}"/>
+    <hyperlink ref="C24" r:id="rId32" xr:uid="{392ABEF6-2F0D-4CF2-8A2F-E97375BA2600}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="landscape"/>
@@ -2139,73 +2344,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE92B36-3868-9749-B5F7-9E2D7D89765C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="127.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="127.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:3" ht="26.1" customHeight="1">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="25.5">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>62</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
